--- a/results/results_growth_atp_tuning.xlsx
+++ b/results/results_growth_atp_tuning.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uminho365-my.sharepoint.com/personal/id8006_uminho_pt/Documents/Pycharm_projects/lab_models/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_2AA5075EFE561736483FE973730F35C95E23E72E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3638074F-D1C1-445F-AEF4-E5DB4BCC552E}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="114_{429C69BD-C077-45B8-9626-0CC00AF49B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{738E4681-FC54-401F-BC3B-8F213240AEA5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iCC431" sheetId="1" r:id="rId1"/>
-    <sheet name="iCC464" sheetId="2" r:id="rId2"/>
-    <sheet name="iCC644" sheetId="3" r:id="rId3"/>
+    <sheet name="iCC470" sheetId="2" r:id="rId2"/>
+    <sheet name="iCC651" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +59,7 @@
     <t>ATP Maintenance (mmolATP/gbiomass)</t>
   </si>
   <si>
-    <t>Glucose (mmolLactose/gbiomass/h-1)</t>
+    <t>Lactose (mmolLactose/gbiomass/h-1)</t>
   </si>
   <si>
     <t>Amino Acids (mmolLactose/gbiomass/h-1)</t>
@@ -68,14 +68,14 @@
     <t>Growth Rate (h-1)</t>
   </si>
   <si>
-    <t>Lactose (mmolLactose/gbiomass/h-1)</t>
+    <t>Glucose (mmolGlucose/gbiomass/h-1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +97,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -106,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -191,11 +197,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -207,6 +228,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -245,7 +269,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -274,29 +298,9 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -321,9 +325,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:noFill/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -336,8 +340,8 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:trendline>
@@ -348,35 +352,6 @@
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
@@ -384,7 +359,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.17630358705161855"/>
+                  <c:x val="0.17630358705161861"/>
                   <c:y val="-0.59629556722076404"/>
                 </c:manualLayout>
               </c:layout>
@@ -393,15 +368,15 @@
                 <a:noFill/>
                 <a:ln>
                   <a:noFill/>
+                  <a:prstDash val="solid"/>
                 </a:ln>
-                <a:effectLst/>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -565,7 +540,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EBE8-43AC-A2FD-818C91E9301A}"/>
+              <c16:uniqueId val="{00000001-02FF-40DB-B35A-22AA9BD814E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -596,9 +571,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -608,7 +583,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -632,29 +607,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -669,16 +624,16 @@
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -713,9 +668,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -725,7 +680,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -749,29 +704,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -786,16 +721,16 @@
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -814,50 +749,11 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -887,7 +783,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -916,29 +812,9 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -951,7 +827,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'iCC464'!$B$1</c:f>
+              <c:f>'iCC470'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -963,9 +839,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:noFill/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -978,8 +854,8 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:trendline>
@@ -990,35 +866,6 @@
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
@@ -1026,7 +873,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.17630358705161855"/>
+                  <c:x val="0.17630358705161861"/>
                   <c:y val="-0.59629556722076404"/>
                 </c:manualLayout>
               </c:layout>
@@ -1035,15 +882,15 @@
                 <a:noFill/>
                 <a:ln>
                   <a:noFill/>
+                  <a:prstDash val="solid"/>
                 </a:ln>
-                <a:effectLst/>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1062,7 +909,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'iCC464'!$A$2:$A$22</c:f>
+              <c:f>'iCC470'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1134,7 +981,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'iCC464'!$B$2:$B$22</c:f>
+              <c:f>'iCC470'!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1207,7 +1054,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7D93-43A0-A02F-60B4D49990CE}"/>
+              <c16:uniqueId val="{00000001-D73B-4B10-A5EF-9E76F9CA184A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1238,9 +1085,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -1250,7 +1097,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1274,29 +1121,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1311,16 +1138,16 @@
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1355,9 +1182,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -1367,7 +1194,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1391,29 +1218,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1428,16 +1235,16 @@
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1456,50 +1263,11 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1529,7 +1297,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1558,29 +1326,9 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1593,7 +1341,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'iCC644'!$B$1</c:f>
+              <c:f>'iCC651'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1605,9 +1353,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:noFill/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -1620,8 +1368,8 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:trendline>
@@ -1632,35 +1380,6 @@
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
@@ -1668,7 +1387,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.17630358705161855"/>
+                  <c:x val="0.17630358705161861"/>
                   <c:y val="-0.59629556722076404"/>
                 </c:manualLayout>
               </c:layout>
@@ -1677,15 +1396,15 @@
                 <a:noFill/>
                 <a:ln>
                   <a:noFill/>
+                  <a:prstDash val="solid"/>
                 </a:ln>
-                <a:effectLst/>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1704,71 +1423,68 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'iCC644'!$A$2:$A$22</c:f>
+              <c:f>'iCC651'!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>38</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>46</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -1776,72 +1492,69 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'iCC644'!$B$2:$B$22</c:f>
+              <c:f>'iCC651'!$B$3:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.5038062779523208</c:v>
+                  <c:v>0.57960980858951361</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47586416228653028</c:v>
+                  <c:v>0.55048463350443999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45085863030298912</c:v>
+                  <c:v>0.52414647032597861</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42834986199643948</c:v>
+                  <c:v>0.50021354786825323</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40798169167854009</c:v>
+                  <c:v>0.47837077798662969</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38946262183007901</c:v>
+                  <c:v>0.45835580552792737</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37255178333306688</c:v>
+                  <c:v>0.4399484196511646</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35704840121099518</c:v>
+                  <c:v>0.42296241806297308</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34278378552534472</c:v>
+                  <c:v>0.40723928587810448</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32961516837139121</c:v>
+                  <c:v>0.39264323383327288</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.31742090889246483</c:v>
+                  <c:v>0.3790572666065809</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.30609672467842802</c:v>
+                  <c:v>0.36638004008588942</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.29555270205951473</c:v>
+                  <c:v>0.3545233288635784</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.28571090373698188</c:v>
+                  <c:v>0.34340997005492402</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.276503439000026</c:v>
+                  <c:v>0.33297218209664592</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.26787089543411119</c:v>
+                  <c:v>0.32315018109756111</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.25976105551118689</c:v>
+                  <c:v>0.31389103506150179</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.25212783946195683</c:v>
+                  <c:v>0.30514770960157611</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2449304292130097</c:v>
+                  <c:v>0.29687826882011231</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.23813253821141239</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.23170179955906359</c:v>
+                  <c:v>0.28904520269622258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1849,7 +1562,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-29E7-4756-9B97-9C9DCF198F0E}"/>
+              <c16:uniqueId val="{00000001-0973-4ABA-B20B-F35786923575}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1880,9 +1593,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -1892,7 +1605,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1916,29 +1629,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1953,16 +1646,16 @@
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1997,9 +1690,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -2009,7 +1702,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2033,29 +1726,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2070,16 +1743,16 @@
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2098,1724 +1771,17 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3838,7 +1804,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{974F151D-3487-427E-9A62-1A72D813882A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3879,13 +1845,11 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0BB8034-1459-46E9-AE70-E1CC6696CD45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3906,23 +1870,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C391B57E-76CE-4282-8FE0-DE5E6055B8A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B2F8C14-662C-4799-880F-5BB49B7B5413}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4232,7 +2196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:XFD22"/>
     </sheetView>
   </sheetViews>
@@ -4453,7 +2417,7 @@
         <v>23.672091493729678</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
@@ -4479,7 +2443,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B32" s="6">
         <v>27.623999999999999</v>
@@ -4493,7 +2457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>10</v>
       </c>
@@ -4511,8 +2475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:XFD6"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4732,7 +2696,7 @@
         <v>23.259631023159621</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
@@ -4758,7 +2722,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B32" s="6">
         <v>16.399999999999999</v>
@@ -4772,7 +2736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>10</v>
       </c>
@@ -4790,8 +2754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4801,10 +2765,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4813,7 +2777,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.5038062779523208</v>
+        <v>0.61198907568361116</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4821,7 +2785,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>0.47586416228653028</v>
+        <v>0.57960980858951361</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4829,7 +2793,7 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0.45085863030298912</v>
+        <v>0.55048463350443999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4837,7 +2801,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.42834986199643948</v>
+        <v>0.52414647032597861</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4845,7 +2809,7 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>0.40798169167854009</v>
+        <v>0.50021354786825323</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4853,7 +2817,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>0.38946262183007901</v>
+        <v>0.47837077798662969</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -4861,7 +2825,7 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>0.37255178333306688</v>
+        <v>0.45835580552792737</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4869,7 +2833,7 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>0.35704840121099518</v>
+        <v>0.4399484196511646</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -4877,7 +2841,7 @@
         <v>26</v>
       </c>
       <c r="B10">
-        <v>0.34278378552534472</v>
+        <v>0.42296241806297308</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4885,7 +2849,7 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>0.32961516837139121</v>
+        <v>0.40723928587810448</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -4893,7 +2857,7 @@
         <v>30</v>
       </c>
       <c r="B12">
-        <v>0.31742090889246483</v>
+        <v>0.39264323383327288</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -4901,7 +2865,7 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <v>0.30609672467842802</v>
+        <v>0.3790572666065809</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -4909,7 +2873,7 @@
         <v>34</v>
       </c>
       <c r="B14">
-        <v>0.29555270205951473</v>
+        <v>0.36638004008588942</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -4917,7 +2881,7 @@
         <v>36</v>
       </c>
       <c r="B15">
-        <v>0.28571090373698188</v>
+        <v>0.3545233288635784</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -4925,7 +2889,7 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>0.276503439000026</v>
+        <v>0.34340997005492402</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -4933,7 +2897,7 @@
         <v>40</v>
       </c>
       <c r="B17">
-        <v>0.26787089543411119</v>
+        <v>0.33297218209664592</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -4941,7 +2905,7 @@
         <v>42</v>
       </c>
       <c r="B18">
-        <v>0.25976105551118689</v>
+        <v>0.32315018109756111</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -4949,7 +2913,7 @@
         <v>44</v>
       </c>
       <c r="B19">
-        <v>0.25212783946195683</v>
+        <v>0.31389103506150179</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -4957,7 +2921,7 @@
         <v>46</v>
       </c>
       <c r="B20">
-        <v>0.2449304292130097</v>
+        <v>0.30514770960157611</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -4965,7 +2929,7 @@
         <v>48</v>
       </c>
       <c r="B21">
-        <v>0.23813253821141239</v>
+        <v>0.29687826882011231</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -4973,7 +2937,7 @@
         <v>50</v>
       </c>
       <c r="B22">
-        <v>0.23170179955906359</v>
+        <v>0.28904520269622258</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -4990,7 +2954,7 @@
       </c>
       <c r="B25">
         <f>SLOPE(B2:B22,A2:A22)</f>
-        <v>-6.4643364262549552E-3</v>
+        <v>-7.6982367502774545E-3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -4999,7 +2963,7 @@
       </c>
       <c r="B26">
         <f>INTERCEPT(B2:B22,A2:A22)</f>
-        <v>0.52888874137078457</v>
+        <v>0.64382418164625033</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -5008,7 +2972,7 @@
       </c>
       <c r="B27" s="2">
         <f>(B24-B26)/B25</f>
-        <v>33.860976121503541</v>
+        <v>43.363719832884961</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -5024,7 +2988,7 @@
       </c>
       <c r="B30" s="6">
         <f>B27</f>
-        <v>33.860976121503541</v>
+        <v>43.363719832884961</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -5037,10 +3001,10 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B32" s="6">
-        <v>8.83</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">

--- a/results/results_growth_atp_tuning.xlsx
+++ b/results/results_growth_atp_tuning.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uminho365-my.sharepoint.com/personal/id8006_uminho_pt/Documents/Pycharm_projects/lab_models/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="114_{429C69BD-C077-45B8-9626-0CC00AF49B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{738E4681-FC54-401F-BC3B-8F213240AEA5}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="114_{E6C828A8-BC7F-44A9-804A-1DA3919D1F2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9E363C47-C969-4751-9A1A-89AF4E7EC656}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iCC431" sheetId="1" r:id="rId1"/>
     <sheet name="iCC470" sheetId="2" r:id="rId2"/>
-    <sheet name="iCC651" sheetId="3" r:id="rId3"/>
+    <sheet name="iCC651" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>ATP growth (mmolATP/gbiomass)</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Glucose (mmolGlucose/gbiomass/h-1)</t>
+  </si>
+  <si>
+    <t>Amino Acids (mmolaminoacid/gbiomass/h-1)</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-02FF-40DB-B35A-22AA9BD814E8}"/>
+              <c16:uniqueId val="{00000001-E885-4BAF-A694-D07B78619CF8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1054,7 +1057,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D73B-4B10-A5EF-9E76F9CA184A}"/>
+              <c16:uniqueId val="{00000001-60F0-42CC-AF2A-A38AE87BE942}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1423,68 +1426,71 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'iCC651'!$A$3:$A$22</c:f>
+              <c:f>'iCC651'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -1492,69 +1498,72 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'iCC651'!$B$3:$B$22</c:f>
+              <c:f>'iCC651'!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.57960980858951361</c:v>
+                  <c:v>0.73388376923204102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55048463350443999</c:v>
+                  <c:v>0.69546589009572257</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52414647032597861</c:v>
+                  <c:v>0.66087017925453073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.50021354786825323</c:v>
+                  <c:v>0.62955326901611064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47837077798662969</c:v>
+                  <c:v>0.6010701269359513</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45835580552792737</c:v>
+                  <c:v>0.57505277358443196</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4399484196511646</c:v>
+                  <c:v>0.55119429820989785</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.42296241806297308</c:v>
+                  <c:v>0.52923669495351633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.40723928587810448</c:v>
+                  <c:v>0.5089614950513992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.39264323383327288</c:v>
+                  <c:v>0.49018247288417521</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3790572666065809</c:v>
+                  <c:v>0.47273990930616627</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36638004008588942</c:v>
+                  <c:v>0.45649603768509223</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3545233288635784</c:v>
+                  <c:v>0.44133139762765727</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.34340997005492402</c:v>
+                  <c:v>0.42714189210622822</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.33297218209664592</c:v>
+                  <c:v>0.41383639460968058</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.32315018109756111</c:v>
+                  <c:v>0.40133479000844802</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.31389103506150179</c:v>
+                  <c:v>0.389566360108484</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.30514770960157611</c:v>
+                  <c:v>0.37846844515798528</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.29687826882011231</c:v>
+                  <c:v>0.3679853278019582</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28904520269622258</c:v>
+                  <c:v>0.3580672975163619</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.34866986236516079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1562,7 +1571,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0973-4ABA-B20B-F35786923575}"/>
+              <c16:uniqueId val="{00000001-1C24-41A8-9E5E-B2C14526FC1B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1829,16 +1838,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1871,22 +1880,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B2F8C14-662C-4799-880F-5BB49B7B5413}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCAACA73-86A0-4EDF-BE7C-91252B42BDBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,8 +2205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2451,7 +2460,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
@@ -2475,8 +2484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2722,7 +2731,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32" s="6">
         <v>16.399999999999999</v>
@@ -2751,11 +2760,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2777,7 +2786,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.61198907568361116</v>
+        <v>0.73388376923204102</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2785,7 +2794,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>0.57960980858951361</v>
+        <v>0.69546589009572257</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2793,7 +2802,7 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0.55048463350443999</v>
+        <v>0.66087017925453073</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2801,7 +2810,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.52414647032597861</v>
+        <v>0.62955326901611064</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2809,7 +2818,7 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>0.50021354786825323</v>
+        <v>0.6010701269359513</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2817,7 +2826,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>0.47837077798662969</v>
+        <v>0.57505277358443196</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2825,7 +2834,7 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>0.45835580552792737</v>
+        <v>0.55119429820989785</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2833,7 +2842,7 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>0.4399484196511646</v>
+        <v>0.52923669495351633</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2841,7 +2850,7 @@
         <v>26</v>
       </c>
       <c r="B10">
-        <v>0.42296241806297308</v>
+        <v>0.5089614950513992</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2849,7 +2858,7 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>0.40723928587810448</v>
+        <v>0.49018247288417521</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2857,7 +2866,7 @@
         <v>30</v>
       </c>
       <c r="B12">
-        <v>0.39264323383327288</v>
+        <v>0.47273990930616627</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2865,7 +2874,7 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <v>0.3790572666065809</v>
+        <v>0.45649603768509223</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2873,7 +2882,7 @@
         <v>34</v>
       </c>
       <c r="B14">
-        <v>0.36638004008588942</v>
+        <v>0.44133139762765727</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2881,7 +2890,7 @@
         <v>36</v>
       </c>
       <c r="B15">
-        <v>0.3545233288635784</v>
+        <v>0.42714189210622822</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2889,7 +2898,7 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>0.34340997005492402</v>
+        <v>0.41383639460968058</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2897,7 +2906,7 @@
         <v>40</v>
       </c>
       <c r="B17">
-        <v>0.33297218209664592</v>
+        <v>0.40133479000844802</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2905,7 +2914,7 @@
         <v>42</v>
       </c>
       <c r="B18">
-        <v>0.32315018109756111</v>
+        <v>0.389566360108484</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2913,7 +2922,7 @@
         <v>44</v>
       </c>
       <c r="B19">
-        <v>0.31389103506150179</v>
+        <v>0.37846844515798528</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2921,7 +2930,7 @@
         <v>46</v>
       </c>
       <c r="B20">
-        <v>0.30514770960157611</v>
+        <v>0.3679853278019582</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2929,7 +2938,7 @@
         <v>48</v>
       </c>
       <c r="B21">
-        <v>0.29687826882011231</v>
+        <v>0.3580672975163619</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2937,7 +2946,7 @@
         <v>50</v>
       </c>
       <c r="B22">
-        <v>0.28904520269622258</v>
+        <v>0.34866986236516079</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2945,7 +2954,7 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>0.31</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2954,7 +2963,7 @@
       </c>
       <c r="B25">
         <f>SLOPE(B2:B22,A2:A22)</f>
-        <v>-7.6982367502774545E-3</v>
+        <v>-9.1893988002237203E-3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2963,7 +2972,7 @@
       </c>
       <c r="B26">
         <f>INTERCEPT(B2:B22,A2:A22)</f>
-        <v>0.64382418164625033</v>
+        <v>0.77240142512628296</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2972,7 +2981,7 @@
       </c>
       <c r="B27" s="2">
         <f>(B24-B26)/B25</f>
-        <v>43.363719832884961</v>
+        <v>41.613323508930009</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2988,7 +2997,7 @@
       </c>
       <c r="B30" s="6">
         <f>B27</f>
-        <v>43.363719832884961</v>
+        <v>41.613323508930009</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -3004,12 +3013,12 @@
         <v>11</v>
       </c>
       <c r="B32" s="6">
-        <v>16.399999999999999</v>
+        <v>11.91</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
@@ -3020,7 +3029,7 @@
         <v>10</v>
       </c>
       <c r="B34" s="8">
-        <v>0.31</v>
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
